--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>73.450124</v>
+        <v>89.35833500000001</v>
       </c>
       <c r="H2">
-        <v>220.350372</v>
+        <v>268.075005</v>
       </c>
       <c r="I2">
-        <v>0.9139420548774678</v>
+        <v>0.9624640326757887</v>
       </c>
       <c r="J2">
-        <v>0.9139420548774677</v>
+        <v>0.9624640326757889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N2">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O2">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P2">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q2">
-        <v>113.1841927465333</v>
+        <v>159.079371658735</v>
       </c>
       <c r="R2">
-        <v>1018.6577347188</v>
+        <v>1431.714344928615</v>
       </c>
       <c r="S2">
-        <v>0.2295399281625689</v>
+        <v>0.2475173309426621</v>
       </c>
       <c r="T2">
-        <v>0.2295399281625689</v>
+        <v>0.2475173309426621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>73.450124</v>
+        <v>89.35833500000001</v>
       </c>
       <c r="H3">
-        <v>220.350372</v>
+        <v>268.075005</v>
       </c>
       <c r="I3">
-        <v>0.9139420548774678</v>
+        <v>0.9624640326757887</v>
       </c>
       <c r="J3">
-        <v>0.9139420548774677</v>
+        <v>0.9624640326757889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.568944</v>
       </c>
       <c r="O3">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P3">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q3">
-        <v>234.280041116352</v>
+        <v>285.02163451608</v>
       </c>
       <c r="R3">
-        <v>2108.520370047168</v>
+        <v>2565.194710644721</v>
       </c>
       <c r="S3">
-        <v>0.4751248606614126</v>
+        <v>0.4434754393402916</v>
       </c>
       <c r="T3">
-        <v>0.4751248606614127</v>
+        <v>0.4434754393402918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>73.450124</v>
+        <v>89.35833500000001</v>
       </c>
       <c r="H4">
-        <v>220.350372</v>
+        <v>268.075005</v>
       </c>
       <c r="I4">
-        <v>0.9139420548774678</v>
+        <v>0.9624640326757887</v>
       </c>
       <c r="J4">
-        <v>0.9139420548774677</v>
+        <v>0.9624640326757889</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N4">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O4">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P4">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q4">
-        <v>22.052591779636</v>
+        <v>42.41229547160833</v>
       </c>
       <c r="R4">
-        <v>198.473326016724</v>
+        <v>381.710659244475</v>
       </c>
       <c r="S4">
-        <v>0.04472312087105595</v>
+        <v>0.06599081995875872</v>
       </c>
       <c r="T4">
-        <v>0.04472312087105595</v>
+        <v>0.06599081995875873</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>73.450124</v>
+        <v>89.35833500000001</v>
       </c>
       <c r="H5">
-        <v>220.350372</v>
+        <v>268.075005</v>
       </c>
       <c r="I5">
-        <v>0.9139420548774678</v>
+        <v>0.9624640326757887</v>
       </c>
       <c r="J5">
-        <v>0.9139420548774677</v>
+        <v>0.9624640326757889</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N5">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O5">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P5">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q5">
-        <v>50.256998694892</v>
+        <v>83.13196536164669</v>
       </c>
       <c r="R5">
-        <v>452.312988254028</v>
+        <v>748.1876882548202</v>
       </c>
       <c r="S5">
-        <v>0.1019222524820734</v>
+        <v>0.1293480227371942</v>
       </c>
       <c r="T5">
-        <v>0.1019222524820734</v>
+        <v>0.1293480227371942</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>73.450124</v>
+        <v>89.35833500000001</v>
       </c>
       <c r="H6">
-        <v>220.350372</v>
+        <v>268.075005</v>
       </c>
       <c r="I6">
-        <v>0.9139420548774678</v>
+        <v>0.9624640326757887</v>
       </c>
       <c r="J6">
-        <v>0.9139420548774677</v>
+        <v>0.9624640326757889</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N6">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O6">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P6">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q6">
-        <v>30.88325535440934</v>
+        <v>48.93030092929001</v>
       </c>
       <c r="R6">
-        <v>277.949298189684</v>
+        <v>440.3727083636101</v>
       </c>
       <c r="S6">
-        <v>0.06263189270035691</v>
+        <v>0.07613241969688218</v>
       </c>
       <c r="T6">
-        <v>0.06263189270035691</v>
+        <v>0.0761324196968822</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.5166010000000001</v>
       </c>
       <c r="I7">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="J7">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N7">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O7">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P7">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q7">
-        <v>0.2653549736555556</v>
+        <v>0.3065580936136668</v>
       </c>
       <c r="R7">
-        <v>2.3881947629</v>
+        <v>2.759022842523001</v>
       </c>
       <c r="S7">
-        <v>0.0005381454787319864</v>
+        <v>0.000476984792678863</v>
       </c>
       <c r="T7">
-        <v>0.0005381454787319863</v>
+        <v>0.0004769847926788631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.5166010000000001</v>
       </c>
       <c r="I8">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="J8">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.568944</v>
       </c>
       <c r="O8">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P8">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q8">
         <v>0.5492584488160002</v>
@@ -948,10 +948,10 @@
         <v>4.943326039344001</v>
       </c>
       <c r="S8">
-        <v>0.001113907709411748</v>
+        <v>0.0008546110273825566</v>
       </c>
       <c r="T8">
-        <v>0.001113907709411748</v>
+        <v>0.0008546110273825569</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>0.5166010000000001</v>
       </c>
       <c r="I9">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="J9">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N9">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O9">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P9">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q9">
-        <v>0.05170125587966667</v>
+        <v>0.08173173121055556</v>
       </c>
       <c r="R9">
-        <v>0.4653113029170001</v>
+        <v>0.735585580895</v>
       </c>
       <c r="S9">
-        <v>0.0001048512364894414</v>
+        <v>0.0001271693479275127</v>
       </c>
       <c r="T9">
-        <v>0.0001048512364894414</v>
+        <v>0.0001271693479275128</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.5166010000000001</v>
       </c>
       <c r="I10">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="J10">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N10">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O10">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P10">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q10">
-        <v>0.1178251506776667</v>
+        <v>0.1602016437071112</v>
       </c>
       <c r="R10">
-        <v>1.060426356099</v>
+        <v>1.441814793364</v>
       </c>
       <c r="S10">
-        <v>0.0002389518886516407</v>
+        <v>0.0002492635144931071</v>
       </c>
       <c r="T10">
-        <v>0.0002389518886516407</v>
+        <v>0.0002492635144931071</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.5166010000000001</v>
       </c>
       <c r="I11">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="J11">
-        <v>0.002142693816245315</v>
+        <v>0.001854741667334279</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N11">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O11">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P11">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q11">
-        <v>0.07240432795522224</v>
+        <v>0.0942924253246667</v>
       </c>
       <c r="R11">
-        <v>0.6516389515970001</v>
+        <v>0.8486318279220002</v>
       </c>
       <c r="S11">
-        <v>0.0001468375029604991</v>
+        <v>0.0001467129848522395</v>
       </c>
       <c r="T11">
-        <v>0.0001468375029604991</v>
+        <v>0.0001467129848522395</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.623825</v>
+        <v>1.963978</v>
       </c>
       <c r="H12">
-        <v>10.871475</v>
+        <v>5.891934</v>
       </c>
       <c r="I12">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="J12">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N12">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O12">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P12">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q12">
-        <v>5.584193530833333</v>
+        <v>3.496354158698</v>
       </c>
       <c r="R12">
-        <v>50.25774177749999</v>
+        <v>31.467187428282</v>
       </c>
       <c r="S12">
-        <v>0.01132486216325137</v>
+        <v>0.005440103517932687</v>
       </c>
       <c r="T12">
-        <v>0.01132486216325137</v>
+        <v>0.005440103517932688</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.623825</v>
+        <v>1.963978</v>
       </c>
       <c r="H13">
-        <v>10.871475</v>
+        <v>5.891934</v>
       </c>
       <c r="I13">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="J13">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.568944</v>
       </c>
       <c r="O13">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P13">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q13">
-        <v>11.5587261636</v>
+        <v>6.264398499744</v>
       </c>
       <c r="R13">
-        <v>104.0285354724</v>
+        <v>56.379586497696</v>
       </c>
       <c r="S13">
-        <v>0.02344134025132951</v>
+        <v>0.009747003526919646</v>
       </c>
       <c r="T13">
-        <v>0.02344134025132951</v>
+        <v>0.009747003526919647</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.623825</v>
+        <v>1.963978</v>
       </c>
       <c r="H14">
-        <v>10.871475</v>
+        <v>5.891934</v>
       </c>
       <c r="I14">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="J14">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N14">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O14">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P14">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q14">
-        <v>1.088013594175</v>
+        <v>0.9321661514366666</v>
       </c>
       <c r="R14">
-        <v>9.792122347575001</v>
+        <v>8.389495362929999</v>
       </c>
       <c r="S14">
-        <v>0.002206514498063398</v>
+        <v>0.001450390929967115</v>
       </c>
       <c r="T14">
-        <v>0.002206514498063398</v>
+        <v>0.001450390929967116</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.623825</v>
+        <v>1.963978</v>
       </c>
       <c r="H15">
-        <v>10.871475</v>
+        <v>5.891934</v>
       </c>
       <c r="I15">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="J15">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N15">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O15">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P15">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q15">
-        <v>2.479540651225</v>
+        <v>1.827130631597333</v>
       </c>
       <c r="R15">
-        <v>22.315865861025</v>
+        <v>16.444175684376</v>
       </c>
       <c r="S15">
-        <v>0.005028560695157567</v>
+        <v>0.002842898438062316</v>
       </c>
       <c r="T15">
-        <v>0.005028560695157568</v>
+        <v>0.002842898438062316</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.623825</v>
+        <v>1.963978</v>
       </c>
       <c r="H16">
-        <v>10.871475</v>
+        <v>5.891934</v>
       </c>
       <c r="I16">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="J16">
-        <v>0.04509136113938133</v>
+        <v>0.02115368628977398</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N16">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O16">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P16">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q16">
-        <v>1.523693994508333</v>
+        <v>1.075423289372</v>
       </c>
       <c r="R16">
-        <v>13.713245950575</v>
+        <v>9.678809604348</v>
       </c>
       <c r="S16">
-        <v>0.003090083531579482</v>
+        <v>0.001673289876892215</v>
       </c>
       <c r="T16">
-        <v>0.003090083531579482</v>
+        <v>0.001673289876892215</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2488803333333334</v>
+        <v>0.16825</v>
       </c>
       <c r="H17">
-        <v>0.7466410000000001</v>
+        <v>0.50475</v>
       </c>
       <c r="I17">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="J17">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N17">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O17">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P17">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q17">
-        <v>0.3835162976555556</v>
+        <v>0.2995255482500001</v>
       </c>
       <c r="R17">
-        <v>3.4516466789</v>
+        <v>2.695729934250001</v>
       </c>
       <c r="S17">
-        <v>0.0007777791339659214</v>
+        <v>0.000466042601746137</v>
       </c>
       <c r="T17">
-        <v>0.0007777791339659214</v>
+        <v>0.000466042601746137</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2488803333333334</v>
+        <v>0.16825</v>
       </c>
       <c r="H18">
-        <v>0.7466410000000001</v>
+        <v>0.50475</v>
       </c>
       <c r="I18">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="J18">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.568944</v>
       </c>
       <c r="O18">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P18">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q18">
-        <v>0.7938406574560001</v>
+        <v>0.536658276</v>
       </c>
       <c r="R18">
-        <v>7.144565917104001</v>
+        <v>4.829924484</v>
       </c>
       <c r="S18">
-        <v>0.001609925582921629</v>
+        <v>0.000835005964121915</v>
       </c>
       <c r="T18">
-        <v>0.001609925582921629</v>
+        <v>0.0008350059641219152</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2488803333333334</v>
+        <v>0.16825</v>
       </c>
       <c r="H19">
-        <v>0.7466410000000001</v>
+        <v>0.50475</v>
       </c>
       <c r="I19">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="J19">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N19">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O19">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P19">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q19">
-        <v>0.07472358239966667</v>
+        <v>0.07985677791666666</v>
       </c>
       <c r="R19">
-        <v>0.6725122415970001</v>
+        <v>0.71871100125</v>
       </c>
       <c r="S19">
-        <v>0.0001515409998503932</v>
+        <v>0.0001242520404846527</v>
       </c>
       <c r="T19">
-        <v>0.0001515409998503932</v>
+        <v>0.0001242520404846527</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2488803333333334</v>
+        <v>0.16825</v>
       </c>
       <c r="H20">
-        <v>0.7466410000000001</v>
+        <v>0.50475</v>
       </c>
       <c r="I20">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="J20">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N20">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O20">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P20">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q20">
-        <v>0.1702921371176667</v>
+        <v>0.1565265643333334</v>
       </c>
       <c r="R20">
-        <v>1.532629234059</v>
+        <v>1.408739079</v>
       </c>
       <c r="S20">
-        <v>0.0003453560428546395</v>
+        <v>0.000243545325968002</v>
       </c>
       <c r="T20">
-        <v>0.0003453560428546395</v>
+        <v>0.000243545325968002</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2488803333333334</v>
+        <v>0.16825</v>
       </c>
       <c r="H21">
-        <v>0.7466410000000001</v>
+        <v>0.50475</v>
       </c>
       <c r="I21">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="J21">
-        <v>0.003096825313259592</v>
+        <v>0.001812193272151965</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N21">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O21">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P21">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q21">
-        <v>0.1046456352752222</v>
+        <v>0.09212932550000001</v>
       </c>
       <c r="R21">
-        <v>0.9418107174770002</v>
+        <v>0.8291639295000001</v>
       </c>
       <c r="S21">
-        <v>0.000212223553667008</v>
+        <v>0.0001433473398312583</v>
       </c>
       <c r="T21">
-        <v>0.0002122235536670081</v>
+        <v>0.0001433473398312584</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.871251333333333</v>
+        <v>1.180534666666667</v>
       </c>
       <c r="H22">
-        <v>8.613754</v>
+        <v>3.541604</v>
       </c>
       <c r="I22">
-        <v>0.03572706485364594</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="J22">
-        <v>0.03572706485364593</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.540966666666667</v>
+        <v>1.780241</v>
       </c>
       <c r="N22">
-        <v>4.6229</v>
+        <v>5.340723000000001</v>
       </c>
       <c r="O22">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="P22">
-        <v>0.2511536994468903</v>
+        <v>0.2571704734300857</v>
       </c>
       <c r="Q22">
-        <v>4.424502596288889</v>
+        <v>2.101636215521334</v>
       </c>
       <c r="R22">
-        <v>39.8205233666</v>
+        <v>18.914725939692</v>
       </c>
       <c r="S22">
-        <v>0.008972984508372151</v>
+        <v>0.003270011575065925</v>
       </c>
       <c r="T22">
-        <v>0.00897298450837215</v>
+        <v>0.003270011575065925</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.871251333333333</v>
+        <v>1.180534666666667</v>
       </c>
       <c r="H23">
-        <v>8.613754</v>
+        <v>3.541604</v>
       </c>
       <c r="I23">
-        <v>0.03572706485364594</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="J23">
-        <v>0.03572706485364593</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.568944</v>
       </c>
       <c r="O23">
-        <v>0.5198632212247992</v>
+        <v>0.4607709215973151</v>
       </c>
       <c r="P23">
-        <v>0.5198632212247993</v>
+        <v>0.4607709215973152</v>
       </c>
       <c r="Q23">
-        <v>9.158281072864</v>
+        <v>3.765490038464</v>
       </c>
       <c r="R23">
-        <v>82.424529655776</v>
+        <v>33.889410346176</v>
       </c>
       <c r="S23">
-        <v>0.01857318701972369</v>
+        <v>0.005858861738599366</v>
       </c>
       <c r="T23">
-        <v>0.01857318701972369</v>
+        <v>0.005858861738599368</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.871251333333333</v>
+        <v>1.180534666666667</v>
       </c>
       <c r="H24">
-        <v>8.613754</v>
+        <v>3.541604</v>
       </c>
       <c r="I24">
-        <v>0.03572706485364594</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="J24">
-        <v>0.03572706485364593</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.300239</v>
+        <v>0.4746316666666666</v>
       </c>
       <c r="N24">
-        <v>0.900717</v>
+        <v>1.423895</v>
       </c>
       <c r="O24">
-        <v>0.04893430675651748</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="P24">
-        <v>0.04893430675651749</v>
+        <v>0.06856445302718973</v>
       </c>
       <c r="Q24">
-        <v>0.8620616290686666</v>
+        <v>0.5603191363977778</v>
       </c>
       <c r="R24">
-        <v>7.758554661618</v>
+        <v>5.042872227579999</v>
       </c>
       <c r="S24">
-        <v>0.001748279151058305</v>
+        <v>0.0008718207500517241</v>
       </c>
       <c r="T24">
-        <v>0.001748279151058305</v>
+        <v>0.0008718207500517242</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.871251333333333</v>
+        <v>1.180534666666667</v>
       </c>
       <c r="H25">
-        <v>8.613754</v>
+        <v>3.541604</v>
       </c>
       <c r="I25">
-        <v>0.03572706485364594</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="J25">
-        <v>0.03572706485364593</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.684233</v>
+        <v>0.9303213333333334</v>
       </c>
       <c r="N25">
-        <v>2.052699</v>
+        <v>2.790964</v>
       </c>
       <c r="O25">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="P25">
-        <v>0.1115193812760242</v>
+        <v>0.1343925781596098</v>
       </c>
       <c r="Q25">
-        <v>1.964604913560667</v>
+        <v>1.098276585139556</v>
       </c>
       <c r="R25">
-        <v>17.681444222046</v>
+        <v>9.884489266256001</v>
       </c>
       <c r="S25">
-        <v>0.003984260167286985</v>
+        <v>0.001708848143892184</v>
       </c>
       <c r="T25">
-        <v>0.003984260167286985</v>
+        <v>0.001708848143892184</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.871251333333333</v>
+        <v>1.180534666666667</v>
       </c>
       <c r="H26">
-        <v>8.613754</v>
+        <v>3.541604</v>
       </c>
       <c r="I26">
-        <v>0.03572706485364594</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="J26">
-        <v>0.03572706485364593</v>
+        <v>0.01271534609495094</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4204656666666667</v>
+        <v>0.547574</v>
       </c>
       <c r="N26">
-        <v>1.261397</v>
+        <v>1.642722</v>
       </c>
       <c r="O26">
-        <v>0.0685293912957687</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="P26">
-        <v>0.06852939129576871</v>
+        <v>0.07910157378579964</v>
       </c>
       <c r="Q26">
-        <v>1.207262606037556</v>
+        <v>0.6464300895653333</v>
       </c>
       <c r="R26">
-        <v>10.865363454338</v>
+        <v>5.817870806088</v>
       </c>
       <c r="S26">
-        <v>0.002448354007204808</v>
+        <v>0.001005803887341741</v>
       </c>
       <c r="T26">
-        <v>0.002448354007204808</v>
+        <v>0.001005803887341741</v>
       </c>
     </row>
   </sheetData>
